--- a/output/JRC/annual_households_gas_space_heating_std_bcm.xlsx
+++ b/output/JRC/annual_households_gas_space_heating_std_bcm.xlsx
@@ -581,67 +581,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02394820213368725</v>
+        <v>0.02394820213368726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0265202483176167</v>
+        <v>0.02652024831761671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02924037723487598</v>
+        <v>0.029240377234876</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03209870135287339</v>
+        <v>0.0320987013528734</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03508488824077932</v>
+        <v>0.03508488824077933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03818578548376216</v>
+        <v>0.03818578548376217</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04139076852668632</v>
+        <v>0.04139076852668634</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04468791263030993</v>
+        <v>0.04468791263030995</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04806371406586307</v>
+        <v>0.04806371406586308</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05151122601134255</v>
+        <v>0.05151122601134257</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05502038065658497</v>
+        <v>0.055020380656585</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05858121646214308</v>
+        <v>0.05858121646214311</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06220254195544414</v>
+        <v>0.06220254195544415</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06587563803536413</v>
+        <v>0.06587563803536414</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06959887236888707</v>
+        <v>0.06959887236888709</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0733653322914683</v>
+        <v>0.07336533229146834</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07715651355821704</v>
+        <v>0.07715651355821709</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08097107414602742</v>
+        <v>0.08097107414602747</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08480412297494112</v>
+        <v>0.08480412297494117</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08864939229775295</v>
+        <v>0.08864939229775301</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0925078505054176</v>
+        <v>0.09250785050541767</v>
       </c>
     </row>
     <row r="4">
@@ -727,10 +727,10 @@
         <v>0.02347970425827526</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02535412337715331</v>
+        <v>0.0253541233771533</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02730189741960974</v>
+        <v>0.02730189741960973</v>
       </c>
       <c r="F5" t="n">
         <v>0.02931407711446452</v>
@@ -739,49 +739,49 @@
         <v>0.03139149147425789</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03354231525627507</v>
+        <v>0.03354231525627506</v>
       </c>
       <c r="I5" t="n">
         <v>0.03575834982453244</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0380346505980291</v>
+        <v>0.03803465059802908</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04036815223757532</v>
+        <v>0.04036815223757531</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04275187608199592</v>
+        <v>0.04275187608199591</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04518575527563871</v>
+        <v>0.0451857552756387</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04766484671590638</v>
+        <v>0.04766484671590637</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05018737704464193</v>
+        <v>0.05018737704464192</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05274524424760763</v>
+        <v>0.05274524424760762</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05533900050068587</v>
+        <v>0.05533900050068586</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05796548527538194</v>
+        <v>0.05796548527538193</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06062910018710884</v>
+        <v>0.06062910018710883</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06332432683644941</v>
+        <v>0.0633243268364494</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0660516981842128</v>
+        <v>0.06605169818421276</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06880242443858467</v>
+        <v>0.06880242443858466</v>
       </c>
     </row>
     <row r="6">
@@ -861,25 +861,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006616166224682338</v>
+        <v>0.006616166224682339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007234252088371841</v>
+        <v>0.007234252088371843</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007868889427368473</v>
+        <v>0.007868889427368474</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00852365966036726</v>
+        <v>0.008523659660367262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009198746393131511</v>
+        <v>0.009198746393131512</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009891745682744393</v>
+        <v>0.009891745682744394</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01059989415387584</v>
+        <v>0.01059989415387585</v>
       </c>
       <c r="I7" t="n">
         <v>0.01132295230304211</v>
@@ -891,10 +891,10 @@
         <v>0.01280294558695156</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01355810227468245</v>
+        <v>0.01355810227468246</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01432021236204981</v>
+        <v>0.01432021236204982</v>
       </c>
       <c r="N7" t="n">
         <v>0.01508673472661094</v>
@@ -903,10 +903,10 @@
         <v>0.01585694523712411</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01663095981519767</v>
+        <v>0.01663095981519768</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01740789275178866</v>
+        <v>0.01740789275178867</v>
       </c>
       <c r="R7" t="n">
         <v>0.01818692907527984</v>
@@ -921,7 +921,7 @@
         <v>0.0205277177366424</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02130809942597476</v>
+        <v>0.02130809942597477</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2018338830507556</v>
+        <v>0.2018338830507555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2337858134778018</v>
+        <v>0.2337858134778017</v>
       </c>
       <c r="D11" t="n">
         <v>0.2676743129137056</v>
@@ -1156,7 +1156,7 @@
         <v>0.3407561907149507</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3798700479651891</v>
+        <v>0.379870047965189</v>
       </c>
       <c r="H11" t="n">
         <v>0.4204020752256868</v>
@@ -1168,7 +1168,7 @@
         <v>0.5049683354767981</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5488240094407989</v>
+        <v>0.5488240094407987</v>
       </c>
       <c r="L11" t="n">
         <v>0.593705556274065</v>
@@ -1177,10 +1177,10 @@
         <v>0.6392469333712099</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6854139785789543</v>
+        <v>0.6854139785789541</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7321144888444779</v>
+        <v>0.7321144888444778</v>
       </c>
       <c r="P11" t="n">
         <v>0.7792219428067814</v>
@@ -1189,10 +1189,10 @@
         <v>0.8265242799245495</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8739528679271412</v>
+        <v>0.8739528679271411</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9214910572727651</v>
+        <v>0.921491057272765</v>
       </c>
       <c r="T11" t="n">
         <v>0.969172266284552</v>
@@ -1351,67 +1351,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02755011472190281</v>
+        <v>0.02755011472190283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02959414296181424</v>
+        <v>0.02959414296181426</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03170224975514126</v>
+        <v>0.03170224975514128</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03386424653822034</v>
+        <v>0.03386424653822037</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03607789713897232</v>
+        <v>0.03607789713897234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03834171746964576</v>
+        <v>0.03834171746964581</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04064861373340248</v>
+        <v>0.04064861373340251</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04299747221553208</v>
+        <v>0.04299747221553211</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04538455659771145</v>
+        <v>0.04538455659771148</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04781171331576887</v>
+        <v>0.0478117133157689</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05026930092007426</v>
+        <v>0.0502693009200743</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05275624191405799</v>
+        <v>0.05275624191405805</v>
       </c>
       <c r="N14" t="n">
-        <v>0.05526803554958207</v>
+        <v>0.05526803554958211</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05781094195275809</v>
+        <v>0.05781094195275813</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06038263520861</v>
+        <v>0.06038263520861008</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.06297636821257284</v>
+        <v>0.06297636821257289</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06558956505693347</v>
+        <v>0.06558956505693353</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06821900031361917</v>
+        <v>0.06821900031361926</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07086688935729156</v>
+        <v>0.0708668893572916</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0735268236018875</v>
+        <v>0.07352682360188756</v>
       </c>
       <c r="V14" t="n">
-        <v>0.07619551410555603</v>
+        <v>0.07619551410555608</v>
       </c>
     </row>
     <row r="15">
@@ -2555,64 +2555,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02781952781665858</v>
+        <v>0.0278195278166586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03065835808691643</v>
+        <v>0.03065835808691644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03369073570542562</v>
+        <v>0.03369073570542564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03689004455222929</v>
+        <v>0.0368900445522293</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0402305862289123</v>
+        <v>0.04023058622891231</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0436754413548779</v>
+        <v>0.04367544135487792</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04722287406618392</v>
+        <v>0.04722287406618393</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05083431035717027</v>
+        <v>0.05083431035717029</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05450482123679493</v>
+        <v>0.05450482123679495</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05822676024263863</v>
+        <v>0.05822676024263865</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0619885183794263</v>
+        <v>0.06198851837942632</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06577526424270912</v>
+        <v>0.06577526424270914</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06958073922245631</v>
+        <v>0.06958073922245632</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07340489081375903</v>
+        <v>0.07340489081375909</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07724618241985634</v>
+        <v>0.07724618241985635</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08110209250619613</v>
+        <v>0.08110209250619617</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08496907466396121</v>
+        <v>0.08496907466396125</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08884484108236303</v>
+        <v>0.0888448410823631</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09272823823629513</v>
+        <v>0.09272823823629518</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0966162730847977</v>
+        <v>0.09661627308479773</v>
       </c>
       <c r="V3" t="n">
         <v>0.1005088773870235</v>
@@ -2695,64 +2695,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02612940780342168</v>
+        <v>0.02612940780342167</v>
       </c>
       <c r="C5" t="n">
         <v>0.02802363795495466</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02997689144888594</v>
+        <v>0.02997689144888593</v>
       </c>
       <c r="E5" t="n">
         <v>0.03199289072474217</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0340708500643295</v>
+        <v>0.03407085006432949</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03620691412655293</v>
+        <v>0.03620691412655291</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03840013634885534</v>
+        <v>0.03840013634885533</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04065076462688757</v>
+        <v>0.04065076462688755</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04295784101759695</v>
+        <v>0.04295784101759694</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04531310992919368</v>
+        <v>0.04531310992919366</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04771615551392416</v>
+        <v>0.04771615551392414</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05016482313817112</v>
+        <v>0.05016482313817111</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05265864604784735</v>
+        <v>0.05265864604784734</v>
       </c>
       <c r="O5" t="n">
         <v>0.05518784712850434</v>
       </c>
       <c r="P5" t="n">
-        <v>0.057747621325772</v>
+        <v>0.05774762132577199</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06033920459913323</v>
+        <v>0.06033920459913322</v>
       </c>
       <c r="R5" t="n">
         <v>0.06295529659970238</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06559374651710835</v>
+        <v>0.06559374651710831</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06825290579717684</v>
+        <v>0.06825290579717681</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07093357578137821</v>
+        <v>0.0709335757813782</v>
       </c>
       <c r="V5" t="n">
         <v>0.0736352436032072</v>
@@ -2835,19 +2835,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006948877110086182</v>
+        <v>0.006948877110086185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007629794007538862</v>
+        <v>0.007629794007538863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008324400461192301</v>
+        <v>0.008324400461192304</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009033089514145999</v>
+        <v>0.009033089514146001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009753598562195934</v>
+        <v>0.009753598562195938</v>
       </c>
       <c r="G7" t="n">
         <v>0.01048425772994088</v>
@@ -2856,7 +2856,7 @@
         <v>0.0112245430506761</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01197578005602304</v>
+        <v>0.01197578005602305</v>
       </c>
       <c r="J7" t="n">
         <v>0.01273650938526256</v>
@@ -2865,13 +2865,13 @@
         <v>0.01350408753400696</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0142757676076851</v>
+        <v>0.01427576760768511</v>
       </c>
       <c r="M7" t="n">
         <v>0.01505054187391336</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01582758673596541</v>
+        <v>0.01582758673596542</v>
       </c>
       <c r="O7" t="n">
         <v>0.01660627799709046</v>
@@ -2880,13 +2880,13 @@
         <v>0.01738600117874288</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01816585403652425</v>
+        <v>0.01816585403652426</v>
       </c>
       <c r="R7" t="n">
         <v>0.01894609754881936</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01972641670135881</v>
+        <v>0.01972641670135882</v>
       </c>
       <c r="T7" t="n">
         <v>0.0205067685519601</v>
@@ -2895,7 +2895,7 @@
         <v>0.02128714950465219</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02206755647200004</v>
+        <v>0.02206755647200005</v>
       </c>
     </row>
     <row r="8">
@@ -3130,13 +3130,13 @@
         <v>0.3959385227912273</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4377782526962611</v>
+        <v>0.437778252696261</v>
       </c>
       <c r="H11" t="n">
         <v>0.4807039213182261</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5244895881364156</v>
+        <v>0.5244895881364154</v>
       </c>
       <c r="J11" t="n">
         <v>0.5689648635254804</v>
@@ -3145,7 +3145,7 @@
         <v>0.6141916975445471</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6601946811273927</v>
+        <v>0.6601946811273925</v>
       </c>
       <c r="M11" t="n">
         <v>0.7067295238541325</v>
@@ -3154,13 +3154,13 @@
         <v>0.7535951285398943</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8007200021252411</v>
+        <v>0.800720002125241</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8480894013903685</v>
+        <v>0.8480894013903684</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8955525476810466</v>
+        <v>0.8955525476810465</v>
       </c>
       <c r="R11" t="n">
         <v>0.9430654853071335</v>
@@ -3325,67 +3325,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03358737555835166</v>
+        <v>0.03358737555835169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03574401152933231</v>
+        <v>0.03574401152933233</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03794927574781496</v>
+        <v>0.03794927574781498</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0402046523693392</v>
+        <v>0.04020465236933923</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04251164053314157</v>
+        <v>0.04251164053314162</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04486419578617915</v>
+        <v>0.04486419578617919</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04725615693669982</v>
+        <v>0.04725615693669985</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04968634166423809</v>
+        <v>0.04968634166423815</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05214911835390163</v>
+        <v>0.05214911835390168</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05464409378842847</v>
+        <v>0.0546440937884285</v>
       </c>
       <c r="L14" t="n">
-        <v>0.05716264697194578</v>
+        <v>0.05716264697194583</v>
       </c>
       <c r="M14" t="n">
-        <v>0.05970332461594519</v>
+        <v>0.05970332461594522</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06226562262757757</v>
+        <v>0.06226562262757762</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06484527060748334</v>
+        <v>0.06484527060748339</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06743977565459311</v>
+        <v>0.06743977565459315</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07004917140526049</v>
+        <v>0.07004917140526054</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07267291827249624</v>
+        <v>0.07267291827249631</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07530980791345956</v>
+        <v>0.07530980791345962</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07795621668920148</v>
+        <v>0.07795621668920155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08061563250402551</v>
+        <v>0.08061563250402559</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08328941116781584</v>
+        <v>0.08328941116781592</v>
       </c>
     </row>
     <row r="15">
@@ -4201,13 +4201,13 @@
         <v>0.01593491175201006</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01681987903028484</v>
+        <v>0.01681987903028483</v>
       </c>
       <c r="O26" t="n">
         <v>0.01771588435745361</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01862179615967773</v>
+        <v>0.01862179615967772</v>
       </c>
       <c r="Q26" t="n">
         <v>0.0195384559756371</v>
@@ -4532,64 +4532,64 @@
         <v>0.03324711404917396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03643895811821644</v>
+        <v>0.03643895811821646</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03976837594708171</v>
+        <v>0.03976837594708173</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04320146504260612</v>
+        <v>0.04320146504260614</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0467233395776056</v>
+        <v>0.04672333957760562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05032164185843666</v>
+        <v>0.05032164185843669</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05398349876414812</v>
+        <v>0.05398349876414815</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05769663382529056</v>
+        <v>0.05769663382529058</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06145382060995156</v>
+        <v>0.06145382060995158</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0652463993015862</v>
+        <v>0.06524639930158622</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06906684709400869</v>
+        <v>0.06906684709400875</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07290813260193833</v>
+        <v>0.07290813260193836</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07676764286314305</v>
+        <v>0.0767676428631431</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0806426787966496</v>
+        <v>0.08064267879664963</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08452998579321953</v>
+        <v>0.08452998579321956</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08842909350689043</v>
+        <v>0.08842909350689049</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09233646353467821</v>
+        <v>0.09233646353467824</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09624609096386906</v>
+        <v>0.09624609096386909</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1001571518872741</v>
+        <v>0.1001571518872742</v>
       </c>
       <c r="U3" t="n">
         <v>0.1040694846875222</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1079829511205035</v>
+        <v>0.1079829511205036</v>
       </c>
     </row>
     <row r="4">
@@ -4672,7 +4672,7 @@
         <v>0.03212880839868023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03417915348387837</v>
+        <v>0.03417915348387836</v>
       </c>
       <c r="D5" t="n">
         <v>0.03628205119837336</v>
@@ -4681,46 +4681,46 @@
         <v>0.03844929435977142</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04068167668943454</v>
+        <v>0.04068167668943452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04296836151602459</v>
+        <v>0.04296836151602458</v>
       </c>
       <c r="H5" t="n">
         <v>0.04530740192306235</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04770146522346317</v>
+        <v>0.04770146522346315</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05014518348832738</v>
+        <v>0.05014518348832737</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05263230469982696</v>
+        <v>0.05263230469982694</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05516357516144162</v>
+        <v>0.05516357516144161</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05773740374434189</v>
+        <v>0.05773740374434188</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06034690605887369</v>
+        <v>0.06034690605887368</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06298825819581017</v>
+        <v>0.06298825819581014</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06565886714396783</v>
+        <v>0.06565886714396782</v>
       </c>
       <c r="Q5" t="n">
         <v>0.06835719578526588</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07108069108127385</v>
+        <v>0.07108069108127384</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07383122885356144</v>
+        <v>0.07383122885356143</v>
       </c>
       <c r="T5" t="n">
         <v>0.07660547302016119</v>
@@ -4729,7 +4729,7 @@
         <v>0.07939746976601987</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08220401901647403</v>
+        <v>0.08220401901647401</v>
       </c>
     </row>
     <row r="6">
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008967912007059764</v>
+        <v>0.008967912007059767</v>
       </c>
       <c r="C7" t="n">
         <v>0.009681222388842942</v>
@@ -4824,7 +4824,7 @@
         <v>0.01187401082980065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01262208878130475</v>
+        <v>0.01262208878130476</v>
       </c>
       <c r="H7" t="n">
         <v>0.01337660234369393</v>
@@ -4833,10 +4833,10 @@
         <v>0.01413599400160897</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01490036352956006</v>
+        <v>0.01490036352956007</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01566921068892368</v>
+        <v>0.01566921068892369</v>
       </c>
       <c r="L7" t="n">
         <v>0.01644150010075441</v>
@@ -4845,19 +4845,19 @@
         <v>0.01721699036764177</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01799376290561348</v>
+        <v>0.01799376290561349</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01877188522375944</v>
+        <v>0.01877188522375945</v>
       </c>
       <c r="P7" t="n">
         <v>0.01955145362791651</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02033163666498294</v>
+        <v>0.02033163666498295</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02111201137173658</v>
+        <v>0.02111201137173659</v>
       </c>
       <c r="S7" t="n">
         <v>0.02189241274655522</v>
@@ -5098,7 +5098,7 @@
         <v>0.3595062553951854</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4007059661422274</v>
+        <v>0.4007059661422273</v>
       </c>
       <c r="F11" t="n">
         <v>0.4437122215757466</v>
@@ -5107,37 +5107,37 @@
         <v>0.4879478687243817</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5329238720867633</v>
+        <v>0.5329238720867632</v>
       </c>
       <c r="I11" t="n">
         <v>0.5785615250817754</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6247598610957098</v>
+        <v>0.6247598610957097</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6713899141416149</v>
+        <v>0.6713899141416148</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7183801160810579</v>
+        <v>0.7183801160810578</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7656849246626365</v>
+        <v>0.7656849246626364</v>
       </c>
       <c r="N11" t="n">
         <v>0.8132302866635094</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8609472100239204</v>
+        <v>0.8609472100239203</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9088086272421768</v>
+        <v>0.9088086272421767</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9567183980752468</v>
+        <v>0.9567183980752467</v>
       </c>
       <c r="R11" t="n">
-        <v>1.004711169341773</v>
+        <v>1.004711169341772</v>
       </c>
       <c r="S11" t="n">
         <v>1.05276707557881</v>
@@ -5299,67 +5299,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04025824686998345</v>
+        <v>0.04025824686998349</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04255918117264446</v>
+        <v>0.0425591811726445</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04490115955856564</v>
+        <v>0.04490115955856568</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04728063391903744</v>
+        <v>0.04728063391903748</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04969048961026678</v>
+        <v>0.04969048961026683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05212998533056128</v>
+        <v>0.05212998533056133</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05459888652176344</v>
+        <v>0.05459888652176349</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05709072309269841</v>
+        <v>0.05709072309269845</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05960339394518262</v>
+        <v>0.05960339394518267</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0621370416395747</v>
+        <v>0.06213704163957479</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06468537358666943</v>
+        <v>0.06468537358666948</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0672453586174932</v>
+        <v>0.06724535861749326</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06981827041104287</v>
+        <v>0.06981827041104294</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07240086817676605</v>
+        <v>0.07240086817676611</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07499913682083453</v>
+        <v>0.07499913682083459</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07760918293218362</v>
+        <v>0.0776091829321837</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0802302726656922</v>
+        <v>0.08023027266569228</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08286014928323167</v>
+        <v>0.08286014928323174</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0855018031338281</v>
+        <v>0.08550180313382816</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08815464173514552</v>
+        <v>0.0881546417351456</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0908144575521512</v>
+        <v>0.09081445755215127</v>
       </c>
     </row>
     <row r="15">
@@ -6181,7 +6181,7 @@
         <v>0.0194396875175911</v>
       </c>
       <c r="P26" t="n">
-        <v>0.02034456288787837</v>
+        <v>0.02034456288787836</v>
       </c>
       <c r="Q26" t="n">
         <v>0.0212570682933676</v>
@@ -6190,7 +6190,7 @@
         <v>0.02217735229008305</v>
       </c>
       <c r="S26" t="n">
-        <v>0.02310574935233168</v>
+        <v>0.02310574935233167</v>
       </c>
       <c r="T26" t="n">
         <v>0.02404250729943577</v>
@@ -6503,61 +6503,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04641167978998591</v>
+        <v>0.04641167978998593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04951426029790605</v>
+        <v>0.04951426029790607</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05268501573686887</v>
+        <v>0.0526850157368689</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05592531715663035</v>
+        <v>0.05592531715663038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05924337382959524</v>
+        <v>0.05924337382959528</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06264261093820576</v>
+        <v>0.06264261093820581</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06612099215953113</v>
+        <v>0.06612099215953116</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06966086476879324</v>
+        <v>0.06966086476879325</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07325715085981005</v>
+        <v>0.07325715085981009</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07689947064386682</v>
+        <v>0.07689947064386686</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08058862111152543</v>
+        <v>0.08058862111152547</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08431735628036827</v>
+        <v>0.08431735628036832</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08807573320507028</v>
+        <v>0.08807573320507031</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09185236434634843</v>
+        <v>0.09185236434634844</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09565058651979282</v>
+        <v>0.09565058651979289</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09946564395881467</v>
+        <v>0.0994656439588147</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1032937875983295</v>
+        <v>0.1032937875983296</v>
       </c>
       <c r="S3" t="n">
         <v>0.1071346418866486</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1109855762939845</v>
+        <v>0.1109855762939846</v>
       </c>
       <c r="U3" t="n">
         <v>0.1148472452740557</v>
@@ -6646,64 +6646,64 @@
         <v>0.03971997739440319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04183064886247411</v>
+        <v>0.0418306488624741</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04398324974279864</v>
+        <v>0.04398324974279863</v>
       </c>
       <c r="E5" t="n">
         <v>0.04617193695172409</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04840811419072352</v>
+        <v>0.04840811419072351</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05068986849006696</v>
+        <v>0.05068986849006694</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05301878593902119</v>
+        <v>0.05301878593902118</v>
       </c>
       <c r="I5" t="n">
         <v>0.05539288912335927</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05780599657821078</v>
+        <v>0.05780599657821076</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06025982586947436</v>
+        <v>0.06025982586947434</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06274779229643555</v>
+        <v>0.06274779229643553</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06526969735113651</v>
+        <v>0.0652696973511365</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06782286101328071</v>
+        <v>0.06782286101328068</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0704073980256744</v>
+        <v>0.07040739802567439</v>
       </c>
       <c r="P5" t="n">
         <v>0.07302154637573365</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07566306448330065</v>
+        <v>0.07566306448330064</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07833053879796852</v>
+        <v>0.07833053879796849</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08102465430349086</v>
+        <v>0.08102465430349083</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08374529740162043</v>
+        <v>0.08374529740162041</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0864897231903435</v>
+        <v>0.08648972319034348</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08925444033418176</v>
+        <v>0.08925444033418174</v>
       </c>
     </row>
     <row r="6">
@@ -6783,10 +6783,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01159282971262171</v>
+        <v>0.01159282971262172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01230705299878264</v>
+        <v>0.01230705299878265</v>
       </c>
       <c r="D7" t="n">
         <v>0.01303149519790738</v>
@@ -6816,19 +6816,19 @@
         <v>0.01910505443971627</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01988163135270895</v>
+        <v>0.01988163135270896</v>
       </c>
       <c r="N7" t="n">
         <v>0.02065950026062803</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0214378098332242</v>
+        <v>0.02143780983322421</v>
       </c>
       <c r="P7" t="n">
         <v>0.02221679868775235</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02299653523398949</v>
+        <v>0.0229965352339895</v>
       </c>
       <c r="R7" t="n">
         <v>0.02377649364327133</v>
@@ -6837,13 +6837,13 @@
         <v>0.02455691853411545</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02533740924312615</v>
+        <v>0.02533740924312616</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02611791537312786</v>
+        <v>0.02611791537312787</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02689843558171786</v>
+        <v>0.02689843558171787</v>
       </c>
     </row>
     <row r="8">
@@ -7069,10 +7069,10 @@
         <v>0.4241839439128416</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4630793387365891</v>
+        <v>0.463079338736589</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5033338837338704</v>
+        <v>0.5033338837338703</v>
       </c>
       <c r="F11" t="n">
         <v>0.5450162191638039</v>
@@ -7084,7 +7084,7 @@
         <v>0.632517393226159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6774871094683315</v>
+        <v>0.6774871094683313</v>
       </c>
       <c r="J11" t="n">
         <v>0.7228785233830501</v>
@@ -7099,13 +7099,13 @@
         <v>0.860973329578577</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9075543992266984</v>
+        <v>0.9075543992266983</v>
       </c>
       <c r="O11" t="n">
         <v>0.9543007486314128</v>
       </c>
       <c r="P11" t="n">
-        <v>1.001263056371197</v>
+        <v>1.001263056371196</v>
       </c>
       <c r="Q11" t="n">
         <v>1.048368212111928</v>
@@ -7273,67 +7273,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0464131170454589</v>
+        <v>0.04641311704545894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04885886592043201</v>
+        <v>0.04885886592043205</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05133469022046842</v>
+        <v>0.05133469022046847</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05383377645835673</v>
+        <v>0.05383377645835679</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05635388459038253</v>
+        <v>0.05635388459038257</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05889856937579124</v>
+        <v>0.05889856937579129</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06146669005691253</v>
+        <v>0.06146669005691258</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06405806997049462</v>
+        <v>0.06405806997049469</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0666623688261289</v>
+        <v>0.06666236882612896</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06928171603929061</v>
+        <v>0.06928171603929068</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07191737661598978</v>
+        <v>0.07191737661598983</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07456997240747094</v>
+        <v>0.074569972407471</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07723591299572559</v>
+        <v>0.07723591299572566</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07990738690412061</v>
+        <v>0.07990738690412068</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08258696234255004</v>
+        <v>0.08258696234255011</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08527251108406328</v>
+        <v>0.08527251108406335</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08796436552599629</v>
+        <v>0.08796436552599636</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09066185132523245</v>
+        <v>0.09066185132523252</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09336230506164855</v>
+        <v>0.09336230506164862</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09606514310485713</v>
+        <v>0.09606514310485723</v>
       </c>
       <c r="V14" t="n">
-        <v>0.09877036095379255</v>
+        <v>0.09877036095379263</v>
       </c>
     </row>
     <row r="15">
@@ -8119,7 +8119,7 @@
         <v>0.01100128460602317</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01174195583759628</v>
+        <v>0.01174195583759627</v>
       </c>
       <c r="E26" t="n">
         <v>0.01250098821449489</v>
@@ -8477,67 +8477,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04905725642087566</v>
+        <v>0.04905725642087568</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0523573947028784</v>
+        <v>0.05235739470287844</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05571976705417339</v>
+        <v>0.05571976705417341</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05914213683461556</v>
+        <v>0.05914213683461559</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0626170631026879</v>
+        <v>0.06261706310268793</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0661339944854166</v>
+        <v>0.06613399448541663</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06970007606993915</v>
+        <v>0.06970007606993919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07331755948417744</v>
+        <v>0.07331755948417747</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07697925005018132</v>
+        <v>0.07697925005018134</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0806812382606226</v>
+        <v>0.08068123826062264</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08441670077751176</v>
+        <v>0.08441670077751182</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08817211665887953</v>
+        <v>0.08817211665887957</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09194653210995087</v>
+        <v>0.09194653210995089</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09574179899360817</v>
+        <v>0.0957417989936082</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09955598779611735</v>
+        <v>0.09955598779611739</v>
       </c>
       <c r="Q3" t="n">
         <v>0.103386467908937</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1072307841319236</v>
+        <v>0.1072307841319237</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1110882364530721</v>
+        <v>0.1110882364530722</v>
       </c>
       <c r="T3" t="n">
         <v>0.1149526550930094</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1188277569148079</v>
+        <v>0.118827756914808</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1227086032826909</v>
+        <v>0.122708603282691</v>
       </c>
     </row>
     <row r="4">
@@ -8617,67 +8617,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04235255175329177</v>
+        <v>0.04235255175329176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04451367768716236</v>
+        <v>0.04451367768716235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04674234668020323</v>
+        <v>0.04674234668020322</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04903390181744371</v>
+        <v>0.0490339018174437</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05138384256398282</v>
+        <v>0.05138384256398281</v>
       </c>
       <c r="G5" t="n">
         <v>0.05378884808105683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05624544915662189</v>
+        <v>0.05624544915662186</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05875224366517406</v>
+        <v>0.05875224366517404</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06130423136569498</v>
+        <v>0.06130423136569497</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06389424842867208</v>
+        <v>0.06389424842867207</v>
       </c>
       <c r="L5" t="n">
         <v>0.0665228783130962</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06918111301799372</v>
+        <v>0.06918111301799371</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07186582466214261</v>
+        <v>0.0718658246621426</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07458087676065726</v>
+        <v>0.07458087676065725</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07732308695423318</v>
+        <v>0.07732308695423314</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08008922458912178</v>
+        <v>0.08008922458912177</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08287710294469053</v>
+        <v>0.0828771029446905</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08568268807377608</v>
+        <v>0.08568268807377605</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08850029962804279</v>
+        <v>0.08850029962804275</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09132554123480609</v>
+        <v>0.09132554123480605</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09415779810189644</v>
+        <v>0.09415779810189641</v>
       </c>
     </row>
     <row r="6">
@@ -8766,25 +8766,25 @@
         <v>0.01425261194011097</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01499191968128018</v>
+        <v>0.01499191968128019</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01574034100843311</v>
+        <v>0.01574034100843312</v>
       </c>
       <c r="G7" t="n">
         <v>0.01649604816093722</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01725846369044212</v>
+        <v>0.01725846369044213</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01802794858932222</v>
+        <v>0.01802794858932223</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01880235416558565</v>
+        <v>0.01880235416558566</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01957889225539768</v>
+        <v>0.01957889225539769</v>
       </c>
       <c r="L7" t="n">
         <v>0.02035692447373959</v>
@@ -8799,25 +8799,25 @@
         <v>0.02269679967849351</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02347724712123347</v>
+        <v>0.02347724712123348</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02425771395162806</v>
+        <v>0.02425771395162807</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02503819835667692</v>
+        <v>0.02503819835667693</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02581869874256503</v>
+        <v>0.02581869874256505</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02659921370251576</v>
+        <v>0.02659921370251577</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02737974199013969</v>
+        <v>0.0273797419901397</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02816028249721364</v>
+        <v>0.02816028249721365</v>
       </c>
     </row>
     <row r="8">
@@ -9040,7 +9040,7 @@
         <v>0.446135535360088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.484352383907075</v>
+        <v>0.4843523839070749</v>
       </c>
       <c r="D11" t="n">
         <v>0.5236369317900049</v>
@@ -9049,7 +9049,7 @@
         <v>0.563888245893463</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6050116027994487</v>
+        <v>0.6050116027994485</v>
       </c>
       <c r="G11" t="n">
         <v>0.6469114709745766</v>
@@ -9073,7 +9073,7 @@
         <v>0.9160172131481022</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9627363744811958</v>
+        <v>0.9627363744811955</v>
       </c>
       <c r="O11" t="n">
         <v>1.009763774893689</v>
@@ -9247,64 +9247,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05017938888495678</v>
+        <v>0.05017938888495682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0524989067833436</v>
+        <v>0.05249890678334363</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0548621597162376</v>
+        <v>0.05486215971623764</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05726609892252737</v>
+        <v>0.05726609892252741</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05970410273894294</v>
+        <v>0.05970410273894297</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0621736343249042</v>
+        <v>0.06217363432490425</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0646682781471143</v>
+        <v>0.06466827814711437</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06718630614656862</v>
+        <v>0.06718630614656868</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06973094165545199</v>
+        <v>0.06973094165545203</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07229508178519006</v>
+        <v>0.0722950817851901</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07487393937803928</v>
+        <v>0.07487393937803934</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07746894255790844</v>
+        <v>0.07746894255790851</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08008081468865609</v>
+        <v>0.08008081468865615</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08271026109087275</v>
+        <v>0.0827102610908728</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08535405744506677</v>
+        <v>0.08535405744506684</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08801037674028113</v>
+        <v>0.0880103767402812</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09068415103098482</v>
+        <v>0.0906841510309849</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09336812781389593</v>
+        <v>0.09336812781389602</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09606044231214328</v>
+        <v>0.09606044231214335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09876205829511131</v>
+        <v>0.09876205829511139</v>
       </c>
       <c r="V14" t="n">
         <v>0.1014686332356518</v>
@@ -10102,7 +10102,7 @@
         <v>0.01404510586540004</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01487576974677037</v>
+        <v>0.01487576974677036</v>
       </c>
       <c r="H26" t="n">
         <v>0.01572381646920096</v>
@@ -10451,52 +10451,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04382065570094244</v>
+        <v>0.04382065570094246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04694548798826849</v>
+        <v>0.04694548798826852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05015635238674119</v>
+        <v>0.05015635238674121</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05344844098822008</v>
+        <v>0.05344844098822009</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05681338972152807</v>
+        <v>0.05681338972152809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06024800157863787</v>
+        <v>0.0602480015786379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06375498429058382</v>
+        <v>0.06375498429058385</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0673233287056357</v>
+        <v>0.06732332870563573</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07093937251907038</v>
+        <v>0.0709393725190704</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0746043553383358</v>
+        <v>0.07460435533833584</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07830752798267399</v>
+        <v>0.07830752798267403</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0820427247306621</v>
+        <v>0.08204272473066214</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08580413789364233</v>
+        <v>0.08580413789364236</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08959523696204139</v>
+        <v>0.08959523696204141</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09341267686843895</v>
+        <v>0.09341267686843897</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09724365466769042</v>
+        <v>0.09724365466769046</v>
       </c>
       <c r="R3" t="n">
         <v>0.1010848933022925</v>
@@ -10511,7 +10511,7 @@
         <v>0.1126880876920388</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1165720163520985</v>
+        <v>0.1165720163520986</v>
       </c>
     </row>
     <row r="4">
@@ -10591,67 +10591,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04235255175329177</v>
+        <v>0.04235255175329176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04451367768716236</v>
+        <v>0.04451367768716235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04674234668020323</v>
+        <v>0.04674234668020322</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04903390181744371</v>
+        <v>0.0490339018174437</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05138384256398282</v>
+        <v>0.05138384256398281</v>
       </c>
       <c r="G5" t="n">
         <v>0.05378884808105683</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05624544915662189</v>
+        <v>0.05624544915662186</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05875224366517406</v>
+        <v>0.05875224366517404</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06130423136569498</v>
+        <v>0.06130423136569497</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06389424842867208</v>
+        <v>0.06389424842867207</v>
       </c>
       <c r="L5" t="n">
         <v>0.0665228783130962</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06918111301799372</v>
+        <v>0.06918111301799371</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07186582466214261</v>
+        <v>0.0718658246621426</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07458087676065726</v>
+        <v>0.07458087676065725</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07732308695423318</v>
+        <v>0.07732308695423314</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08008922458912178</v>
+        <v>0.08008922458912177</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08287710294469053</v>
+        <v>0.0828771029446905</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08568268807377608</v>
+        <v>0.08568268807377605</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08850029962804279</v>
+        <v>0.08850029962804275</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09132554123480609</v>
+        <v>0.09132554123480605</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09415779810189644</v>
+        <v>0.09415779810189641</v>
       </c>
     </row>
     <row r="6">
@@ -10731,10 +10731,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01159282971262171</v>
+        <v>0.01159282971262172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01230705299878264</v>
+        <v>0.01230705299878265</v>
       </c>
       <c r="D7" t="n">
         <v>0.01303149519790738</v>
@@ -10764,19 +10764,19 @@
         <v>0.01910505443971627</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01988163135270895</v>
+        <v>0.01988163135270896</v>
       </c>
       <c r="N7" t="n">
         <v>0.02065950026062803</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0214378098332242</v>
+        <v>0.02143780983322421</v>
       </c>
       <c r="P7" t="n">
         <v>0.02221679868775235</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02299653523398949</v>
+        <v>0.0229965352339895</v>
       </c>
       <c r="R7" t="n">
         <v>0.02377649364327133</v>
@@ -10785,13 +10785,13 @@
         <v>0.02455691853411545</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02533740924312615</v>
+        <v>0.02533740924312616</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02611791537312786</v>
+        <v>0.02611791537312787</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02689843558171786</v>
+        <v>0.02689843558171787</v>
       </c>
     </row>
     <row r="8">
@@ -11017,7 +11017,7 @@
         <v>0.3570736118718565</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3954253212309576</v>
+        <v>0.3954253212309575</v>
       </c>
       <c r="E11" t="n">
         <v>0.4353572375859822</v>
@@ -11029,28 +11029,28 @@
         <v>0.519254903609897</v>
       </c>
       <c r="H11" t="n">
-        <v>0.562959872305088</v>
+        <v>0.5629598723050879</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6076362372717895</v>
+        <v>0.6076362372717894</v>
       </c>
       <c r="J11" t="n">
         <v>0.6532203988741165</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6995632119762542</v>
+        <v>0.699563211976254</v>
       </c>
       <c r="L11" t="n">
         <v>0.7464496209659397</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7937278868611246</v>
+        <v>0.7937278868611245</v>
       </c>
       <c r="N11" t="n">
         <v>0.8412837999898917</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8890135241466178</v>
+        <v>0.8890135241466177</v>
       </c>
       <c r="P11" t="n">
         <v>0.9368111644972456</v>
@@ -11062,7 +11062,7 @@
         <v>1.032532565723947</v>
       </c>
       <c r="S11" t="n">
-        <v>1.080413020539556</v>
+        <v>1.080413020539555</v>
       </c>
       <c r="T11" t="n">
         <v>1.128294320405205</v>
@@ -11071,7 +11071,7 @@
         <v>1.176176362116748</v>
       </c>
       <c r="V11" t="n">
-        <v>1.224059058616878</v>
+        <v>1.224059058616879</v>
       </c>
     </row>
     <row r="12">
@@ -11221,64 +11221,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05017938888495678</v>
+        <v>0.05017938888495682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0524989067833436</v>
+        <v>0.05249890678334363</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0548621597162376</v>
+        <v>0.05486215971623764</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05726609892252737</v>
+        <v>0.05726609892252741</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05970410273894294</v>
+        <v>0.05970410273894297</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0621736343249042</v>
+        <v>0.06217363432490425</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0646682781471143</v>
+        <v>0.06466827814711437</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06718630614656862</v>
+        <v>0.06718630614656868</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06973094165545199</v>
+        <v>0.06973094165545203</v>
       </c>
       <c r="K14" t="n">
-        <v>0.07229508178519006</v>
+        <v>0.0722950817851901</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07487393937803928</v>
+        <v>0.07487393937803934</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07746894255790844</v>
+        <v>0.07746894255790851</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08008081468865609</v>
+        <v>0.08008081468865615</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08271026109087275</v>
+        <v>0.0827102610908728</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08535405744506677</v>
+        <v>0.08535405744506684</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08801037674028113</v>
+        <v>0.0880103767402812</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09068415103098482</v>
+        <v>0.0906841510309849</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09336812781389593</v>
+        <v>0.09336812781389602</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09606044231214328</v>
+        <v>0.09606044231214335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09876205829511131</v>
+        <v>0.09876205829511139</v>
       </c>
       <c r="V14" t="n">
         <v>0.1014686332356518</v>
@@ -12097,16 +12097,16 @@
         <v>0.02009557997557753</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02098002869755982</v>
+        <v>0.02098002869755981</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02187596634435743</v>
+        <v>0.02187596634435742</v>
       </c>
       <c r="P26" t="n">
         <v>0.02278273036168186</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02369983562633875</v>
+        <v>0.02369983562633874</v>
       </c>
       <c r="R26" t="n">
         <v>0.02462396513039543</v>
@@ -12425,61 +12425,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0328861662240133</v>
+        <v>0.03288616622401331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03593651519533465</v>
+        <v>0.03593651519533467</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0391193050280725</v>
+        <v>0.03911930502807252</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04242615626452484</v>
+        <v>0.04242615626452486</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04582245515910761</v>
+        <v>0.04582245515910763</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04929005992270451</v>
+        <v>0.04929005992270453</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05282268530744461</v>
+        <v>0.05282268530744465</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05641888243283382</v>
+        <v>0.05641888243283383</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06006675484695445</v>
+        <v>0.06006675484695447</v>
       </c>
       <c r="K3" t="n">
         <v>0.06375755721487605</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06748925622047591</v>
+        <v>0.06748925622047595</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07125739189015803</v>
+        <v>0.07125739189015805</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07504821834434955</v>
+        <v>0.07504821834434959</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07885910000747791</v>
+        <v>0.07885910000747794</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08269241313010103</v>
+        <v>0.08269241313010106</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08654652555724361</v>
+        <v>0.08654652555724364</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09041746294511654</v>
+        <v>0.09041746294511657</v>
       </c>
       <c r="S3" t="n">
-        <v>0.09430295622920928</v>
+        <v>0.09430295622920934</v>
       </c>
       <c r="T3" t="n">
-        <v>0.09819828836025242</v>
+        <v>0.09819828836025248</v>
       </c>
       <c r="U3" t="n">
         <v>0.1020985619566491</v>
@@ -12565,13 +12565,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0336911404730727</v>
+        <v>0.03369114047307269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03564055876223275</v>
+        <v>0.03564055876223274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03764432973452119</v>
+        <v>0.03764432973452118</v>
       </c>
       <c r="E5" t="n">
         <v>0.03970498170923241</v>
@@ -12580,52 +12580,52 @@
         <v>0.04182042261712478</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04398914085262646</v>
+        <v>0.04398914085262645</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04620510534848573</v>
+        <v>0.04620510534848572</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0484703676706196</v>
+        <v>0.04847036767061959</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05078727655315863</v>
+        <v>0.05078727655315862</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05315205642119109</v>
+        <v>0.05315205642119107</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05556434503656496</v>
+        <v>0.05556434503656495</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05801356402594458</v>
+        <v>0.05801356402594457</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06050293704112101</v>
+        <v>0.060502937041121</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06302737546399469</v>
+        <v>0.06302737546399466</v>
       </c>
       <c r="P5" t="n">
         <v>0.06558456886607805</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06817254323067355</v>
+        <v>0.06817254323067354</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07079320647843856</v>
+        <v>0.07079320647843854</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07344739451265404</v>
+        <v>0.073447394512654</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0761342986968752</v>
+        <v>0.07613429869687516</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07885289865413006</v>
+        <v>0.07885289865413005</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08159345317952885</v>
+        <v>0.08159345317952882</v>
       </c>
     </row>
     <row r="6">
@@ -12705,13 +12705,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009300738059387161</v>
+        <v>0.009300738059387163</v>
       </c>
       <c r="C7" t="n">
         <v>0.01002328916055895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01075701311953141</v>
+        <v>0.01075701311953142</v>
       </c>
       <c r="E7" t="n">
         <v>0.01150118951167602</v>
@@ -12732,7 +12732,7 @@
         <v>0.01533298671956396</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01611103412042011</v>
+        <v>0.01611103412042012</v>
       </c>
       <c r="L7" t="n">
         <v>0.01689070520123997</v>
@@ -12741,10 +12741,10 @@
         <v>0.01767250818689677</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01845595133353483</v>
+        <v>0.01845595133353484</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01923992856707126</v>
+        <v>0.01923992856707127</v>
       </c>
       <c r="P7" t="n">
         <v>0.02002394137891675</v>
@@ -12756,13 +12756,13 @@
         <v>0.02159205823508139</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02237615588584661</v>
+        <v>0.02237615588584662</v>
       </c>
       <c r="T7" t="n">
         <v>0.02316027614404373</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02394441678866088</v>
+        <v>0.02394441678866089</v>
       </c>
       <c r="V7" t="n">
         <v>0.02472857588034418</v>
@@ -12988,7 +12988,7 @@
         <v>0.446135535360088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.484352383907075</v>
+        <v>0.4843523839070749</v>
       </c>
       <c r="D11" t="n">
         <v>0.5236369317900049</v>
@@ -12997,7 +12997,7 @@
         <v>0.563888245893463</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6050116027994487</v>
+        <v>0.6050116027994485</v>
       </c>
       <c r="G11" t="n">
         <v>0.6469114709745766</v>
@@ -13021,7 +13021,7 @@
         <v>0.9160172131481022</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9627363744811958</v>
+        <v>0.9627363744811955</v>
       </c>
       <c r="O11" t="n">
         <v>1.009763774893689</v>
@@ -13195,67 +13195,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03964140634285717</v>
+        <v>0.0396414063428572</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04181773893104027</v>
+        <v>0.0418177389310403</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04404502941026559</v>
+        <v>0.04404502941026563</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04631571603765011</v>
+        <v>0.04631571603765015</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04862545513709519</v>
+        <v>0.04862545513709523</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05097415519105185</v>
+        <v>0.05097415519105188</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05335529296494434</v>
+        <v>0.05335529296494437</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05577221905332477</v>
+        <v>0.05577221905332481</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05821834754380514</v>
+        <v>0.05821834754380519</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06069079083587864</v>
+        <v>0.06069079083587871</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06319242261007604</v>
+        <v>0.06319242261007611</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06571839084447378</v>
+        <v>0.06571839084447384</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06826877713878579</v>
+        <v>0.06826877713878583</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07083575674462335</v>
+        <v>0.0708357567446234</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07341907730216508</v>
+        <v>0.07341907730216514</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07601748003156018</v>
+        <v>0.07601748003156024</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07862935305026592</v>
+        <v>0.07862935305026597</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08125970122748036</v>
+        <v>0.08125970122748041</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08390478018531194</v>
+        <v>0.08390478018531203</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08656140362733675</v>
+        <v>0.08656140362733683</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08922597045964607</v>
+        <v>0.08922597045964614</v>
       </c>
     </row>
     <row r="15">
